--- a/테이블정의.xlsx
+++ b/테이블정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\kios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\키오수ㅡ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63A5E2-5988-4FB9-B21C-C3778251C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85117CA2-B114-4D3A-AEB2-E4A9A2C0938E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="132">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -378,10 +369,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주문 건별당 주문상세 메뉴를 표시하고 해당 메뉴에 대한 옵션을 표시한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜가 바뀌면 다시 1부터 적용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,6 +400,146 @@
   </si>
   <si>
     <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세에서 데이터입력, 삭제 시 트리거를 통해 매출테이블에 데이터 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 건별당 주문상세 메뉴를 표시하고 해당 메뉴에 대한 옵션을 표시한다. 환불 : -로 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세에서 환불(금액이 - 일 경우) update 조건:주문ID, 오늘 날짜로 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB컬럼명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_SUB_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_SUB_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_SUB_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_SUB_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_COUNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_SIZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_ICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_SHOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_TAKE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_CREAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_ORDER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_MENU_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_SIZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_SHOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_CREAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_REFUND</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,6 +758,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -640,77 +821,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,22 +1152,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EFFA11-29F5-40E6-9BD9-B0540040F69F}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1060,7 +1184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1074,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -1088,7 +1212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1102,7 +1226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -1124,7 +1248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>38</v>
       </c>
@@ -1140,7 +1264,7 @@
         <v>음료ID</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1176,7 +1300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1187,7 +1311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>28</v>
       </c>
@@ -1223,7 +1347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>21</v>
       </c>
@@ -1253,8 +1377,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1273,8 +1397,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1286,8 +1410,8 @@
         <v>음료ID</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1420,8 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1433,8 @@
         <v>디저트ID</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1318,8 +1442,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1337,8 +1461,8 @@
         <v>주문ID</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -1346,8 +1470,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1358,8 +1482,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -1407,23 +1531,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8359A9B6-742A-496A-9B26-C685B30D46B3}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1440,7 +1564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
@@ -1455,7 +1579,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
@@ -1470,7 +1594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1484,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1495,7 +1619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>38</v>
       </c>
@@ -1522,7 +1646,7 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>37</v>
@@ -1537,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -1549,7 +1673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
@@ -1561,7 +1685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
@@ -1577,8 +1701,8 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1595,8 +1719,8 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -1609,8 +1733,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -1623,8 +1747,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -1637,8 +1761,8 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -1649,8 +1773,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -1663,8 +1787,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1683,8 +1807,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1696,8 +1820,8 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1706,8 +1830,8 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1719,8 +1843,8 @@
         <v>디저트상세ID</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1728,8 +1852,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1749,8 +1873,8 @@
         <v>주문ID</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -1758,8 +1882,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1770,8 +1894,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -1791,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="C28" s="3" t="s">
         <v>2</v>
@@ -1800,7 +1924,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
@@ -1824,23 +1948,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54036E58-ECF0-46AA-A393-DBF39638BE66}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1857,7 +1981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1996,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
@@ -1887,7 +2011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1901,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +2036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -1923,7 +2047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>38</v>
       </c>
@@ -1939,7 +2063,7 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>37</v>
@@ -1954,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -1966,7 +2090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
@@ -1978,7 +2102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
@@ -1994,8 +2118,8 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2012,8 +2136,8 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -2026,8 +2150,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -2040,8 +2164,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -2054,8 +2178,8 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2066,8 +2190,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -2080,8 +2204,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2100,8 +2224,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
       <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
@@ -2109,8 +2233,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2121,8 +2245,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
       <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
@@ -2130,8 +2254,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2148,8 +2272,8 @@
         <v>음료상세ID</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
       <c r="C23" t="s">
         <v>61</v>
       </c>
@@ -2158,8 +2282,8 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
       <c r="C24" t="s">
         <v>60</v>
       </c>
@@ -2171,8 +2295,8 @@
         <v>디저트상세ID</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
       <c r="C25" t="s">
         <v>59</v>
       </c>
@@ -2180,8 +2304,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -2189,7 +2313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -2201,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="C28" s="3" t="s">
         <v>2</v>
@@ -2210,7 +2334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
@@ -2234,23 +2358,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C31FC3-BF19-45F0-975A-406DABB1469F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2267,7 +2391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
@@ -2282,7 +2406,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
@@ -2297,7 +2421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>72</v>
       </c>
@@ -2312,7 +2436,7 @@
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
         <v>69</v>
@@ -2325,7 +2449,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
         <v>34</v>
@@ -2338,7 +2462,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
         <v>70</v>
@@ -2354,8 +2478,8 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2372,8 +2496,8 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
         <v>30</v>
@@ -2386,8 +2510,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -2400,8 +2524,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
         <v>25</v>
@@ -2414,8 +2538,8 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
         <v>23</v>
@@ -2426,8 +2550,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -2440,8 +2564,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2460,8 +2584,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
@@ -2469,8 +2593,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2481,8 +2605,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
       <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
@@ -2490,8 +2614,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2508,8 +2632,8 @@
         <v>메뉴상세ID</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -2518,8 +2642,8 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="C20" t="s">
         <v>68</v>
       </c>
@@ -2527,7 +2651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -2539,7 +2663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="C22" s="3" t="s">
         <v>2</v>
@@ -2548,7 +2672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="C23" s="3" t="s">
         <v>1</v>
@@ -2570,472 +2694,617 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B3DAA7-FFF5-4419-AB24-1D4ABC5F6930}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="6"/>
+    <col min="2" max="2" width="14.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="26" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="32" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="34" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="35" t="str">
+      <c r="G7" s="28" t="str">
         <f>"["&amp;B2&amp;"]"&amp;C2</f>
         <v>[메뉴카테고리]메뉴ID</v>
       </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="26" t="s">
+      <c r="G8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="26" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="29" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="34" t="str">
-        <f>D8</f>
+      <c r="D12" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="27" t="str">
+        <f>E8</f>
         <v>number</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="35" t="str">
+      <c r="G12" s="28" t="str">
         <f>"["&amp;B8&amp;"]"&amp;C8</f>
         <v>[주문합계]주문ID</v>
       </c>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="34" t="s">
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="F13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="35" t="str">
+      <c r="G13" s="28" t="str">
         <f>"["&amp;B4&amp;"]"&amp;C5</f>
         <v>[메뉴상세정보]메뉴이름</v>
       </c>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="34" t="s">
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="34" t="str">
-        <f>D7</f>
+      <c r="D14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="27" t="str">
+        <f>E7</f>
         <v>number</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="F14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="35" t="str">
+      <c r="G14" s="28" t="str">
         <f>"["&amp;B4&amp;"]"&amp;C7</f>
         <v>[메뉴상세정보]종류</v>
       </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="32" t="s">
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="H15" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="32" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="32" t="s">
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="H17" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="32" t="s">
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="H19" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="32" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="38" t="s">
+      <c r="D20" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39"/>
-      <c r="B21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="43" t="s">
+      <c r="F22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="33" t="str">
+        <f>E15</f>
+        <v>number</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="33" t="str">
+        <f>E17</f>
+        <v>number</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="33" t="str">
+        <f>E19</f>
+        <v>number</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="42" t="str">
-        <f>D15</f>
+      <c r="D28" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="33" t="str">
+        <f>E21</f>
         <v>number</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="42" t="str">
-        <f>D17</f>
+      <c r="F28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="33" t="str">
+        <f>E20</f>
         <v>number</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="42" t="str">
-        <f>D19</f>
-        <v>number</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="42" t="str">
-        <f>D20</f>
-        <v>number</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="41"/>
+      <c r="F29" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A21:A29"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A20"/>
     <mergeCell ref="A2:A3"/>

--- a/테이블정의.xlsx
+++ b/테이블정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\키오수ㅡ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\kios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85117CA2-B114-4D3A-AEB2-E4A9A2C0938E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E37671F-22F1-4E0F-AEFB-F82C9EC1A52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="12370" yWindow="1720" windowWidth="6400" windowHeight="3270" firstSheet="5" activeTab="6" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,29 @@
     <sheet name="수정2차" sheetId="3" r:id="rId3"/>
     <sheet name="수정3차" sheetId="4" r:id="rId4"/>
     <sheet name="수정4차" sheetId="5" r:id="rId5"/>
+    <sheet name="수정5차(완)" sheetId="6" r:id="rId6"/>
+    <sheet name="테이블 정의서" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="239">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -540,6 +551,386 @@
   </si>
   <si>
     <t>SALES_REFUND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호1</t>
+  </si>
+  <si>
+    <t>전화번호1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호2</t>
+  </si>
+  <si>
+    <t>전화번호2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호3</t>
+  </si>
+  <si>
+    <t>전화번호3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금</t>
+  </si>
+  <si>
+    <t>적립금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID</t>
+  </si>
+  <si>
+    <t>회원ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_PHONE1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_PHONE2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_PHONE3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_MONEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보를 관리하고 전화번호를 사용해 적립금을 저장(update)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiosk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_ID</t>
+  </si>
+  <si>
+    <t>MENU_TYPE</t>
+  </si>
+  <si>
+    <t>메뉴ID</t>
+  </si>
+  <si>
+    <t>메뉴종류</t>
+  </si>
+  <si>
+    <t>MENU_SUB_ID</t>
+  </si>
+  <si>
+    <t>메뉴상세ID</t>
+  </si>
+  <si>
+    <t>MENU_SUB_NAME</t>
+  </si>
+  <si>
+    <t>MENU_SUB_PRICE</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>MENU_SUB_TYPE</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>주문ID</t>
+  </si>
+  <si>
+    <t>ORDER_COUNT</t>
+  </si>
+  <si>
+    <t>총수량</t>
+  </si>
+  <si>
+    <t>ORDER_DATE</t>
+  </si>
+  <si>
+    <t>ORDER_PRICE</t>
+  </si>
+  <si>
+    <t>ORDER_SUB_NAME</t>
+  </si>
+  <si>
+    <t>ORDER_SUB_SIZE</t>
+  </si>
+  <si>
+    <t>ORDER_SUB_ICE</t>
+  </si>
+  <si>
+    <t>ORDER_SUB_SHOT</t>
+  </si>
+  <si>
+    <t>ORDER_SUB_TAKE</t>
+  </si>
+  <si>
+    <t>ORDER_SUB_CREAM</t>
+  </si>
+  <si>
+    <t>ORDER_SUB_PRICE</t>
+  </si>
+  <si>
+    <t>SALES_ID</t>
+  </si>
+  <si>
+    <t>매출ID</t>
+  </si>
+  <si>
+    <t>SALES_DATE</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>SALES_ORDER_ID</t>
+  </si>
+  <si>
+    <t>SALES_MENU_NAME</t>
+  </si>
+  <si>
+    <t>SALES_SIZE</t>
+  </si>
+  <si>
+    <t>SALES_SHOT</t>
+  </si>
+  <si>
+    <t>SALES_CREAM</t>
+  </si>
+  <si>
+    <t>SALES_PRICE</t>
+  </si>
+  <si>
+    <t>SALES_REFUND</t>
+  </si>
+  <si>
+    <t>환불금액</t>
+  </si>
+  <si>
+    <t>MENU_SUB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>systimestamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafeKiosk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권진솔, 김혜진, 이화석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴종류(COFFEE, TEA, DESERT, …)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU(MENU_TYPE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER(MEMBER_ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>USER_PHONE1</t>
+  </si>
+  <si>
+    <t>USER_PHONE2</t>
+  </si>
+  <si>
+    <t>USER_PHONE3</t>
+  </si>
+  <si>
+    <t>ORDER_USER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAKE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_COUNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFUND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONE1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONE2</t>
+  </si>
+  <si>
+    <t>PHONE3</t>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_POINT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +1067,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -700,13 +1097,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +1246,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,19 +1289,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,22 +1667,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EFFA11-29F5-40E6-9BD9-B0540040F69F}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1184,7 +1699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1198,7 +1713,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -1212,7 +1728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1742,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1754,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1766,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>38</v>
       </c>
@@ -1264,7 +1783,8 @@
         <v>음료ID</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1277,8 +1797,11 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1288,8 +1811,11 @@
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1299,8 +1825,11 @@
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1310,8 +1839,9 @@
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1325,7 +1855,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1867,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>28</v>
       </c>
@@ -1347,7 +1879,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>25</v>
       </c>
@@ -1358,7 +1891,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -1366,7 +1900,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>21</v>
       </c>
@@ -1377,8 +1912,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1397,11 +1932,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="46"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1410,21 +1947,25 @@
         <v>음료ID</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="46"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="46"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1433,17 +1974,20 @@
         <v>디저트ID</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="46"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="46"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1461,8 +2005,9 @@
         <v>주문ID</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="46"/>
+      <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -1470,8 +2015,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="46"/>
+      <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1482,8 +2028,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="46"/>
+      <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -1491,7 +2038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1502,7 +2049,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +2058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -1531,23 +2080,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8359A9B6-742A-496A-9B26-C685B30D46B3}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1564,7 +2113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
@@ -1579,7 +2128,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
@@ -1594,7 +2143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +2157,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +2169,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -1630,7 +2181,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>38</v>
       </c>
@@ -1646,8 +2198,7 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1660,9 +2211,10 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1672,9 +2224,10 @@
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1684,9 +2237,10 @@
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -1701,8 +2255,8 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1719,8 +2273,8 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="47"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -1733,8 +2287,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="47"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -1747,8 +2301,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="47"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -1761,8 +2315,8 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="47"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -1773,8 +2327,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="47"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -1787,8 +2341,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1807,11 +2361,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="48"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1820,21 +2376,25 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="48"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="48"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1843,17 +2403,20 @@
         <v>디저트상세ID</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="48"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1873,8 +2436,9 @@
         <v>주문ID</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="48"/>
+      <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -1882,8 +2446,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="48"/>
+      <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1894,8 +2459,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="48"/>
+      <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -1903,35 +2469,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="F29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1948,23 +2519,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54036E58-ECF0-46AA-A393-DBF39638BE66}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1981,7 +2552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
@@ -1996,7 +2567,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
@@ -2011,7 +2582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -2025,7 +2596,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +2608,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2620,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>38</v>
       </c>
@@ -2063,8 +2637,7 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
@@ -2077,9 +2650,10 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2089,9 +2663,10 @@
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2101,9 +2676,10 @@
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
@@ -2118,8 +2694,8 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2136,8 +2712,8 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="47"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -2150,8 +2726,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="47"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -2164,8 +2740,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="47"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -2178,8 +2754,8 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="47"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2190,8 +2766,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="47"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -2204,8 +2780,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2224,17 +2800,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="48"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="48"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2244,18 +2824,22 @@
       <c r="E20" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="48"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2272,8 +2856,9 @@
         <v>음료상세ID</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="48"/>
+      <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>61</v>
       </c>
@@ -2282,8 +2867,9 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="48"/>
+      <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2881,9 @@
         <v>디저트상세ID</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="48"/>
+      <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>59</v>
       </c>
@@ -2304,8 +2891,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="48"/>
+      <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -2313,35 +2901,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="F29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2358,23 +2951,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C31FC3-BF19-45F0-975A-406DABB1469F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2391,7 +2984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" s="14" t="s">
         <v>57</v>
       </c>
@@ -2406,7 +2999,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
@@ -2421,7 +3014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
         <v>72</v>
       </c>
@@ -2436,7 +3029,7 @@
       </c>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
         <v>69</v>
@@ -2449,7 +3042,7 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
         <v>34</v>
@@ -2462,7 +3055,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
         <v>70</v>
@@ -2478,8 +3071,8 @@
         <v>메뉴ID</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2496,8 +3089,8 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="47"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
         <v>30</v>
@@ -2510,8 +3103,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="47"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -2524,8 +3117,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="47"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
         <v>25</v>
@@ -2538,8 +3131,8 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="47"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
         <v>23</v>
@@ -2550,8 +3143,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="47"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -2564,8 +3157,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2584,17 +3177,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="48"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="48"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2604,18 +3201,22 @@
       <c r="E16" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="48"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2632,8 +3233,9 @@
         <v>메뉴상세ID</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="48"/>
+      <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -2642,8 +3244,9 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="48"/>
+      <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>68</v>
       </c>
@@ -2651,35 +3254,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2696,27 +3304,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B3DAA7-FFF5-4419-AB24-1D4ABC5F6930}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="29.25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="6"/>
+    <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
@@ -2742,11 +3350,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="49" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -2764,9 +3372,9 @@
       <c r="G2" s="19"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="51"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="21" t="s">
         <v>55</v>
       </c>
@@ -2784,11 +3392,11 @@
       </c>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="53" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -2806,9 +3414,9 @@
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
@@ -2824,9 +3432,9 @@
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
@@ -2842,9 +3450,9 @@
       <c r="G6" s="25"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
@@ -2863,11 +3471,11 @@
       </c>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2887,9 +3495,9 @@
       </c>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="40"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="51"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
@@ -2903,9 +3511,9 @@
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="40"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="51"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="21" t="s">
         <v>66</v>
       </c>
@@ -2921,9 +3529,9 @@
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="40"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="21" t="s">
         <v>63</v>
       </c>
@@ -2937,11 +3545,11 @@
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -2963,9 +3571,9 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41"/>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="27" t="s">
         <v>69</v>
       </c>
@@ -2984,9 +3592,9 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="27" t="s">
         <v>55</v>
       </c>
@@ -3006,9 +3614,9 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="25" t="s">
         <v>86</v>
       </c>
@@ -3028,9 +3636,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="25" t="s">
         <v>83</v>
       </c>
@@ -3046,9 +3654,9 @@
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="25" t="s">
         <v>80</v>
       </c>
@@ -3068,9 +3676,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="41"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
@@ -3086,9 +3694,9 @@
       </c>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="41"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="25" t="s">
         <v>76</v>
       </c>
@@ -3108,9 +3716,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="25" t="s">
         <v>68</v>
       </c>
@@ -3128,11 +3736,11 @@
       </c>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="49" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -3150,9 +3758,9 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="40"/>
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="50"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="21" t="s">
         <v>96</v>
       </c>
@@ -3168,9 +3776,9 @@
       <c r="G22" s="33"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="40"/>
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="50"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
@@ -3186,9 +3794,9 @@
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="40"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="50"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="34" t="s">
         <v>94</v>
       </c>
@@ -3204,9 +3812,9 @@
       <c r="G24" s="33"/>
       <c r="H24" s="32"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="40"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="50"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="33" t="s">
         <v>86</v>
       </c>
@@ -3223,9 +3831,9 @@
       <c r="G25" s="33"/>
       <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="40"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="50"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="33" t="s">
         <v>80</v>
       </c>
@@ -3242,9 +3850,9 @@
       <c r="G26" s="33"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="40"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="50"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="33" t="s">
         <v>76</v>
       </c>
@@ -3261,9 +3869,9 @@
       <c r="G27" s="33"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="40"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="50"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="33" t="s">
         <v>95</v>
       </c>
@@ -3280,9 +3888,9 @@
       <c r="G28" s="33"/>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="40"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="50"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="33" t="s">
         <v>100</v>
       </c>
@@ -3317,4 +3925,2102 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5999F2E2-1EFF-4B4C-A094-EECB720CB35E}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="29.25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="51"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="28" t="str">
+        <f>"["&amp;B2&amp;"]"&amp;C2</f>
+        <v>[메뉴카테고리]메뉴ID</v>
+      </c>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="65"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="65"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="65"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="66"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="27" t="str">
+        <f>E8</f>
+        <v>number</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f>"["&amp;B8&amp;"]"&amp;C8</f>
+        <v>[주문합계]주문ID</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f>"["&amp;B4&amp;"]"&amp;C5</f>
+        <v>[메뉴상세정보]메뉴이름</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="27" t="str">
+        <f>E7</f>
+        <v>number</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f>"["&amp;B4&amp;"]"&amp;C7</f>
+        <v>[메뉴상세정보]종류</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="50"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="50"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="50"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="50"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="33" t="str">
+        <f>E16</f>
+        <v>number</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="50"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="33" t="str">
+        <f>E18</f>
+        <v>number</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="50"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="33" t="str">
+        <f>E20</f>
+        <v>number</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="50"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="33" t="str">
+        <f>E22</f>
+        <v>number</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="50"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="33" t="str">
+        <f>E21</f>
+        <v>number</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="56"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="56"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="56"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="56"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="57"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED668F-73BB-4F87-BA8D-3500BB1764BE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="60">
+        <v>44456</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="32">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="32">
+        <v>2</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="38">
+        <v>50</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="32">
+        <v>1</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="32">
+        <v>2</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="38">
+        <v>50</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="32">
+        <v>3</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="38">
+        <v>4</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="38">
+        <v>1</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="38">
+        <v>2</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="38">
+        <v>3</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="38">
+        <v>4</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="38">
+        <v>5</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+    </row>
+    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="38">
+        <v>1</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="38">
+        <v>2</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="38">
+        <v>50</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="38">
+        <v>3</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="38">
+        <v>4</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38">
+        <v>0</v>
+      </c>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="38">
+        <v>5</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="38">
+        <v>10</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="38">
+        <v>6</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38">
+        <v>0</v>
+      </c>
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="38">
+        <v>7</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="38">
+        <v>10</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="38">
+        <v>8</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38">
+        <v>0</v>
+      </c>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="38">
+        <v>9</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+    </row>
+    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J37" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="38">
+        <v>2</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="38">
+        <v>3</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="38">
+        <v>4</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="38">
+        <v>50</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="38">
+        <v>5</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="38">
+        <v>6</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" s="38">
+        <v>7</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" s="38">
+        <v>8</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" s="38">
+        <v>9</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38">
+        <v>0</v>
+      </c>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+    </row>
+    <row r="49" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="J49" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" s="32">
+        <v>1</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="38"/>
+      <c r="G50" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" s="32">
+        <v>2</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="38">
+        <v>20</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="32">
+        <v>3</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="38">
+        <v>10</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="32">
+        <v>4</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="38">
+        <v>10</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="32">
+        <v>5</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="38">
+        <v>10</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" s="32">
+        <v>6</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32">
+        <v>0</v>
+      </c>
+      <c r="K55" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>